--- a/temp_doc/PESERTA UJIAN FIX ADMIN XII FIX.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN XII FIX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE27CC08-F956-CA4A-957D-4712A3B4F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C049B5-EB85-A444-AA76-D19BE8F14A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
     <t>K010300981246</t>
   </si>
   <si>
-    <t>T0SMKTH</t>
+    <t>T0SMKTH*</t>
   </si>
 </sst>
 </file>

--- a/temp_doc/PESERTA UJIAN FIX ADMIN XII FIX.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN XII FIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C049B5-EB85-A444-AA76-D19BE8F14A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD880CEA-93C7-FA4F-9909-C4826796A270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
     <t>K010300981246</t>
   </si>
   <si>
-    <t>T0SMKTH*</t>
+    <t>T0SMKTH#</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1927,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G247"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp_doc/PESERTA UJIAN FIX ADMIN XII FIX.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN XII FIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD880CEA-93C7-FA4F-9909-C4826796A270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEE843B-EB99-CF4E-BAED-9DB4181458B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
     <t>K010300981246</t>
   </si>
   <si>
-    <t>T0SMKTH#</t>
+    <t>T0SMKTH@</t>
   </si>
 </sst>
 </file>
@@ -1605,10 +1605,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1927,7 +1928,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1984,7 +1985,7 @@
       <c r="F2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2008,7 +2009,7 @@
       <c r="F3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2032,7 +2033,7 @@
       <c r="F4" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2056,7 +2057,7 @@
       <c r="F5" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2080,7 +2081,7 @@
       <c r="F6" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2104,7 +2105,7 @@
       <c r="F7" t="s">
         <v>262</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2128,7 +2129,7 @@
       <c r="F8" t="s">
         <v>263</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2152,7 +2153,7 @@
       <c r="F9" t="s">
         <v>264</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2176,7 +2177,7 @@
       <c r="F10" t="s">
         <v>265</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2200,7 +2201,7 @@
       <c r="F11" t="s">
         <v>266</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2224,7 +2225,7 @@
       <c r="F12" t="s">
         <v>267</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2248,7 +2249,7 @@
       <c r="F13" t="s">
         <v>268</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2272,7 +2273,7 @@
       <c r="F14" t="s">
         <v>269</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2296,7 +2297,7 @@
       <c r="F15" t="s">
         <v>270</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2320,7 +2321,7 @@
       <c r="F16" t="s">
         <v>271</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2344,7 +2345,7 @@
       <c r="F17" t="s">
         <v>272</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2368,7 +2369,7 @@
       <c r="F18" t="s">
         <v>273</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2392,7 +2393,7 @@
       <c r="F19" t="s">
         <v>274</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2416,7 +2417,7 @@
       <c r="F20" t="s">
         <v>275</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2440,7 +2441,7 @@
       <c r="F21" t="s">
         <v>276</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2464,7 +2465,7 @@
       <c r="F22" t="s">
         <v>277</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2488,7 +2489,7 @@
       <c r="F23" t="s">
         <v>278</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2512,7 +2513,7 @@
       <c r="F24" t="s">
         <v>279</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2536,7 +2537,7 @@
       <c r="F25" t="s">
         <v>280</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2560,7 +2561,7 @@
       <c r="F26" t="s">
         <v>281</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2584,7 +2585,7 @@
       <c r="F27" t="s">
         <v>282</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2608,7 +2609,7 @@
       <c r="F28" t="s">
         <v>283</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2632,7 +2633,7 @@
       <c r="F29" t="s">
         <v>284</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2656,7 +2657,7 @@
       <c r="F30" t="s">
         <v>285</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2680,7 +2681,7 @@
       <c r="F31" t="s">
         <v>286</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2704,7 +2705,7 @@
       <c r="F32" t="s">
         <v>287</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2728,7 +2729,7 @@
       <c r="F33" t="s">
         <v>288</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2752,7 +2753,7 @@
       <c r="F34" t="s">
         <v>289</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2776,7 +2777,7 @@
       <c r="F35" t="s">
         <v>290</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2800,7 +2801,7 @@
       <c r="F36" t="s">
         <v>291</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2824,7 +2825,7 @@
       <c r="F37" t="s">
         <v>292</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2848,7 +2849,7 @@
       <c r="F38" t="s">
         <v>293</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2872,7 +2873,7 @@
       <c r="F39" t="s">
         <v>294</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2896,7 +2897,7 @@
       <c r="F40" t="s">
         <v>295</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2920,7 +2921,7 @@
       <c r="F41" t="s">
         <v>296</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2944,7 +2945,7 @@
       <c r="F42" t="s">
         <v>297</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2968,7 +2969,7 @@
       <c r="F43" t="s">
         <v>298</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2992,7 +2993,7 @@
       <c r="F44" t="s">
         <v>299</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3016,7 +3017,7 @@
       <c r="F45" t="s">
         <v>300</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3040,7 +3041,7 @@
       <c r="F46" t="s">
         <v>301</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3064,7 +3065,7 @@
       <c r="F47" t="s">
         <v>302</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3088,7 +3089,7 @@
       <c r="F48" t="s">
         <v>303</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3112,7 +3113,7 @@
       <c r="F49" t="s">
         <v>304</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3136,7 +3137,7 @@
       <c r="F50" t="s">
         <v>305</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3160,7 +3161,7 @@
       <c r="F51" t="s">
         <v>306</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3184,7 +3185,7 @@
       <c r="F52" t="s">
         <v>307</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3208,7 +3209,7 @@
       <c r="F53" t="s">
         <v>308</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3232,7 +3233,7 @@
       <c r="F54" t="s">
         <v>309</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3256,7 +3257,7 @@
       <c r="F55" t="s">
         <v>310</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3280,7 +3281,7 @@
       <c r="F56" t="s">
         <v>311</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3304,7 +3305,7 @@
       <c r="F57" t="s">
         <v>312</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3328,7 +3329,7 @@
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3352,7 +3353,7 @@
       <c r="F59" t="s">
         <v>314</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3376,7 +3377,7 @@
       <c r="F60" t="s">
         <v>315</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3400,7 +3401,7 @@
       <c r="F61" t="s">
         <v>316</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3424,7 +3425,7 @@
       <c r="F62" t="s">
         <v>317</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3448,7 +3449,7 @@
       <c r="F63" t="s">
         <v>318</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3472,7 +3473,7 @@
       <c r="F64" t="s">
         <v>319</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3496,7 +3497,7 @@
       <c r="F65" t="s">
         <v>320</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3520,7 +3521,7 @@
       <c r="F66" t="s">
         <v>321</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3544,7 +3545,7 @@
       <c r="F67" t="s">
         <v>322</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3568,7 +3569,7 @@
       <c r="F68" t="s">
         <v>323</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3592,7 +3593,7 @@
       <c r="F69" t="s">
         <v>324</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3616,7 +3617,7 @@
       <c r="F70" t="s">
         <v>325</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3640,7 +3641,7 @@
       <c r="F71" t="s">
         <v>326</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3664,7 +3665,7 @@
       <c r="F72" t="s">
         <v>327</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3688,7 +3689,7 @@
       <c r="F73" t="s">
         <v>328</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3712,7 +3713,7 @@
       <c r="F74" t="s">
         <v>329</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3736,7 +3737,7 @@
       <c r="F75" t="s">
         <v>330</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3760,7 +3761,7 @@
       <c r="F76" t="s">
         <v>331</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3784,7 +3785,7 @@
       <c r="F77" t="s">
         <v>332</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3808,7 +3809,7 @@
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3832,7 +3833,7 @@
       <c r="F79" t="s">
         <v>334</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3856,7 +3857,7 @@
       <c r="F80" t="s">
         <v>335</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3880,7 +3881,7 @@
       <c r="F81" t="s">
         <v>336</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3904,7 +3905,7 @@
       <c r="F82" t="s">
         <v>337</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3928,7 +3929,7 @@
       <c r="F83" t="s">
         <v>338</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3952,7 +3953,7 @@
       <c r="F84" t="s">
         <v>339</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3976,7 +3977,7 @@
       <c r="F85" t="s">
         <v>340</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4000,7 +4001,7 @@
       <c r="F86" t="s">
         <v>341</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4024,7 +4025,7 @@
       <c r="F87" t="s">
         <v>342</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4048,7 +4049,7 @@
       <c r="F88" t="s">
         <v>343</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4072,7 +4073,7 @@
       <c r="F89" t="s">
         <v>344</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4096,7 +4097,7 @@
       <c r="F90" t="s">
         <v>345</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4120,7 +4121,7 @@
       <c r="F91" t="s">
         <v>346</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4144,7 +4145,7 @@
       <c r="F92" t="s">
         <v>347</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4168,7 +4169,7 @@
       <c r="F93" t="s">
         <v>348</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4192,7 +4193,7 @@
       <c r="F94" t="s">
         <v>349</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4216,7 +4217,7 @@
       <c r="F95" t="s">
         <v>350</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4240,7 +4241,7 @@
       <c r="F96" t="s">
         <v>351</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4264,7 +4265,7 @@
       <c r="F97" t="s">
         <v>352</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4288,7 +4289,7 @@
       <c r="F98" t="s">
         <v>353</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4312,7 +4313,7 @@
       <c r="F99" t="s">
         <v>354</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4336,7 +4337,7 @@
       <c r="F100" t="s">
         <v>355</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4360,7 +4361,7 @@
       <c r="F101" t="s">
         <v>356</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4384,7 +4385,7 @@
       <c r="F102" t="s">
         <v>357</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4408,7 +4409,7 @@
       <c r="F103" t="s">
         <v>358</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4432,7 +4433,7 @@
       <c r="F104" t="s">
         <v>359</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4456,7 +4457,7 @@
       <c r="F105" t="s">
         <v>360</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4480,7 +4481,7 @@
       <c r="F106" t="s">
         <v>361</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4504,7 +4505,7 @@
       <c r="F107" t="s">
         <v>362</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4528,7 +4529,7 @@
       <c r="F108" t="s">
         <v>363</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4552,7 +4553,7 @@
       <c r="F109" t="s">
         <v>364</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4576,7 +4577,7 @@
       <c r="F110" t="s">
         <v>365</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4600,7 +4601,7 @@
       <c r="F111" t="s">
         <v>366</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4624,7 +4625,7 @@
       <c r="F112" t="s">
         <v>367</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4648,7 +4649,7 @@
       <c r="F113" t="s">
         <v>368</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4672,7 +4673,7 @@
       <c r="F114" t="s">
         <v>369</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4696,7 +4697,7 @@
       <c r="F115" t="s">
         <v>370</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4720,7 +4721,7 @@
       <c r="F116" t="s">
         <v>371</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4744,7 +4745,7 @@
       <c r="F117" t="s">
         <v>372</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4768,7 +4769,7 @@
       <c r="F118" t="s">
         <v>373</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4792,7 +4793,7 @@
       <c r="F119" t="s">
         <v>374</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4816,7 +4817,7 @@
       <c r="F120" t="s">
         <v>375</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4840,7 +4841,7 @@
       <c r="F121" t="s">
         <v>376</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4864,7 +4865,7 @@
       <c r="F122" t="s">
         <v>377</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4888,7 +4889,7 @@
       <c r="F123" t="s">
         <v>378</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4912,7 +4913,7 @@
       <c r="F124" t="s">
         <v>379</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4936,7 +4937,7 @@
       <c r="F125" t="s">
         <v>380</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4960,7 +4961,7 @@
       <c r="F126" t="s">
         <v>381</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4984,7 +4985,7 @@
       <c r="F127" t="s">
         <v>382</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5008,7 +5009,7 @@
       <c r="F128" t="s">
         <v>383</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5032,7 +5033,7 @@
       <c r="F129" t="s">
         <v>384</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5056,7 +5057,7 @@
       <c r="F130" t="s">
         <v>385</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5080,7 +5081,7 @@
       <c r="F131" t="s">
         <v>386</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5104,7 +5105,7 @@
       <c r="F132" t="s">
         <v>387</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5128,7 +5129,7 @@
       <c r="F133" t="s">
         <v>388</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5152,7 +5153,7 @@
       <c r="F134" t="s">
         <v>389</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5176,7 +5177,7 @@
       <c r="F135" t="s">
         <v>390</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5200,7 +5201,7 @@
       <c r="F136" t="s">
         <v>391</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5224,7 +5225,7 @@
       <c r="F137" t="s">
         <v>392</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5248,7 +5249,7 @@
       <c r="F138" t="s">
         <v>393</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5272,7 +5273,7 @@
       <c r="F139" t="s">
         <v>394</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5296,7 +5297,7 @@
       <c r="F140" t="s">
         <v>395</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5320,7 +5321,7 @@
       <c r="F141" t="s">
         <v>396</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5344,7 +5345,7 @@
       <c r="F142" t="s">
         <v>397</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5368,7 +5369,7 @@
       <c r="F143" t="s">
         <v>398</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5392,7 +5393,7 @@
       <c r="F144" t="s">
         <v>399</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5416,7 +5417,7 @@
       <c r="F145" t="s">
         <v>400</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5440,7 +5441,7 @@
       <c r="F146" t="s">
         <v>401</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5464,7 +5465,7 @@
       <c r="F147" t="s">
         <v>402</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5488,7 +5489,7 @@
       <c r="F148" t="s">
         <v>403</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5512,7 +5513,7 @@
       <c r="F149" t="s">
         <v>404</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5536,7 +5537,7 @@
       <c r="F150" t="s">
         <v>405</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5560,7 +5561,7 @@
       <c r="F151" t="s">
         <v>406</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5584,7 +5585,7 @@
       <c r="F152" t="s">
         <v>407</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5608,7 +5609,7 @@
       <c r="F153" t="s">
         <v>408</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5632,7 +5633,7 @@
       <c r="F154" t="s">
         <v>409</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5656,7 +5657,7 @@
       <c r="F155" t="s">
         <v>410</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5680,7 +5681,7 @@
       <c r="F156" t="s">
         <v>411</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5704,7 +5705,7 @@
       <c r="F157" t="s">
         <v>412</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5728,7 +5729,7 @@
       <c r="F158" t="s">
         <v>413</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5752,7 +5753,7 @@
       <c r="F159" t="s">
         <v>414</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5776,7 +5777,7 @@
       <c r="F160" t="s">
         <v>415</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5800,7 +5801,7 @@
       <c r="F161" t="s">
         <v>416</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5824,7 +5825,7 @@
       <c r="F162" t="s">
         <v>417</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5848,7 +5849,7 @@
       <c r="F163" t="s">
         <v>418</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5872,7 +5873,7 @@
       <c r="F164" t="s">
         <v>419</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5896,7 +5897,7 @@
       <c r="F165" t="s">
         <v>420</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5920,7 +5921,7 @@
       <c r="F166" t="s">
         <v>421</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5944,7 +5945,7 @@
       <c r="F167" t="s">
         <v>422</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5968,7 +5969,7 @@
       <c r="F168" t="s">
         <v>423</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5992,7 +5993,7 @@
       <c r="F169" t="s">
         <v>424</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6016,7 +6017,7 @@
       <c r="F170" t="s">
         <v>425</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6040,7 +6041,7 @@
       <c r="F171" t="s">
         <v>426</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6064,7 +6065,7 @@
       <c r="F172" t="s">
         <v>427</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6088,7 +6089,7 @@
       <c r="F173" t="s">
         <v>428</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6112,7 +6113,7 @@
       <c r="F174" t="s">
         <v>429</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6136,7 +6137,7 @@
       <c r="F175" t="s">
         <v>430</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6160,7 +6161,7 @@
       <c r="F176" t="s">
         <v>431</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6184,7 +6185,7 @@
       <c r="F177" t="s">
         <v>432</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6208,7 +6209,7 @@
       <c r="F178" t="s">
         <v>433</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6232,7 +6233,7 @@
       <c r="F179" t="s">
         <v>434</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6256,7 +6257,7 @@
       <c r="F180" t="s">
         <v>435</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6280,7 +6281,7 @@
       <c r="F181" t="s">
         <v>436</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6304,7 +6305,7 @@
       <c r="F182" t="s">
         <v>437</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6328,7 +6329,7 @@
       <c r="F183" t="s">
         <v>438</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6352,7 +6353,7 @@
       <c r="F184" t="s">
         <v>439</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6376,7 +6377,7 @@
       <c r="F185" t="s">
         <v>440</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6400,7 +6401,7 @@
       <c r="F186" t="s">
         <v>441</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6424,7 +6425,7 @@
       <c r="F187" t="s">
         <v>442</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6448,7 +6449,7 @@
       <c r="F188" t="s">
         <v>443</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6472,7 +6473,7 @@
       <c r="F189" t="s">
         <v>444</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6496,7 +6497,7 @@
       <c r="F190" t="s">
         <v>445</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6520,7 +6521,7 @@
       <c r="F191" t="s">
         <v>446</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6544,7 +6545,7 @@
       <c r="F192" t="s">
         <v>447</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6568,7 +6569,7 @@
       <c r="F193" t="s">
         <v>448</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6592,7 +6593,7 @@
       <c r="F194" t="s">
         <v>449</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6616,7 +6617,7 @@
       <c r="F195" t="s">
         <v>450</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6640,7 +6641,7 @@
       <c r="F196" t="s">
         <v>451</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6664,7 +6665,7 @@
       <c r="F197" t="s">
         <v>452</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6688,7 +6689,7 @@
       <c r="F198" t="s">
         <v>453</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6712,7 +6713,7 @@
       <c r="F199" t="s">
         <v>454</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6736,7 +6737,7 @@
       <c r="F200" t="s">
         <v>455</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6760,7 +6761,7 @@
       <c r="F201" t="s">
         <v>456</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6784,7 +6785,7 @@
       <c r="F202" t="s">
         <v>457</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6808,7 +6809,7 @@
       <c r="F203" t="s">
         <v>458</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6832,7 +6833,7 @@
       <c r="F204" t="s">
         <v>459</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6856,7 +6857,7 @@
       <c r="F205" t="s">
         <v>460</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6880,7 +6881,7 @@
       <c r="F206" t="s">
         <v>461</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6904,7 +6905,7 @@
       <c r="F207" t="s">
         <v>462</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6928,7 +6929,7 @@
       <c r="F208" t="s">
         <v>463</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6952,7 +6953,7 @@
       <c r="F209" t="s">
         <v>464</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6976,7 +6977,7 @@
       <c r="F210" t="s">
         <v>465</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7000,7 +7001,7 @@
       <c r="F211" t="s">
         <v>466</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7024,7 +7025,7 @@
       <c r="F212" t="s">
         <v>467</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7048,7 +7049,7 @@
       <c r="F213" t="s">
         <v>468</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7072,7 +7073,7 @@
       <c r="F214" t="s">
         <v>469</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7096,7 +7097,7 @@
       <c r="F215" t="s">
         <v>470</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7120,7 +7121,7 @@
       <c r="F216" t="s">
         <v>471</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7144,7 +7145,7 @@
       <c r="F217" t="s">
         <v>472</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7168,7 +7169,7 @@
       <c r="F218" t="s">
         <v>473</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7192,7 +7193,7 @@
       <c r="F219" t="s">
         <v>474</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7216,7 +7217,7 @@
       <c r="F220" t="s">
         <v>475</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7240,7 +7241,7 @@
       <c r="F221" t="s">
         <v>476</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7264,7 +7265,7 @@
       <c r="F222" t="s">
         <v>477</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7288,7 +7289,7 @@
       <c r="F223" t="s">
         <v>478</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7312,7 +7313,7 @@
       <c r="F224" t="s">
         <v>479</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7336,7 +7337,7 @@
       <c r="F225" t="s">
         <v>480</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7360,7 +7361,7 @@
       <c r="F226" t="s">
         <v>481</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7384,7 +7385,7 @@
       <c r="F227" t="s">
         <v>482</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7408,7 +7409,7 @@
       <c r="F228" t="s">
         <v>483</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7432,7 +7433,7 @@
       <c r="F229" t="s">
         <v>484</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7456,7 +7457,7 @@
       <c r="F230" t="s">
         <v>485</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7480,7 +7481,7 @@
       <c r="F231" t="s">
         <v>486</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7504,7 +7505,7 @@
       <c r="F232" t="s">
         <v>487</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7528,7 +7529,7 @@
       <c r="F233" t="s">
         <v>488</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7552,7 +7553,7 @@
       <c r="F234" t="s">
         <v>489</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7576,7 +7577,7 @@
       <c r="F235" t="s">
         <v>490</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7600,7 +7601,7 @@
       <c r="F236" t="s">
         <v>491</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7624,7 +7625,7 @@
       <c r="F237" t="s">
         <v>492</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7648,7 +7649,7 @@
       <c r="F238" t="s">
         <v>493</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7672,7 +7673,7 @@
       <c r="F239" t="s">
         <v>494</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7696,7 +7697,7 @@
       <c r="F240" t="s">
         <v>495</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7720,7 +7721,7 @@
       <c r="F241" t="s">
         <v>496</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7744,7 +7745,7 @@
       <c r="F242" t="s">
         <v>497</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7768,7 +7769,7 @@
       <c r="F243" t="s">
         <v>498</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7792,7 +7793,7 @@
       <c r="F244" t="s">
         <v>499</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7816,7 +7817,7 @@
       <c r="F245" t="s">
         <v>500</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7840,7 +7841,7 @@
       <c r="F246" t="s">
         <v>501</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7864,7 +7865,7 @@
       <c r="F247" t="s">
         <v>502</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="3" t="s">
         <v>503</v>
       </c>
     </row>

--- a/temp_doc/PESERTA UJIAN FIX ADMIN XII FIX.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN XII FIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEE843B-EB99-CF4E-BAED-9DB4181458B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB318A0-F523-E647-BE0F-D549D4F0872C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -1605,11 +1605,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1928,7 +1927,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1985,7 +1984,7 @@
       <c r="F2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2009,7 +2008,7 @@
       <c r="F3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2033,7 +2032,7 @@
       <c r="F4" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2057,7 +2056,7 @@
       <c r="F5" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2081,7 +2080,7 @@
       <c r="F6" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2105,7 +2104,7 @@
       <c r="F7" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2129,7 +2128,7 @@
       <c r="F8" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2153,7 +2152,7 @@
       <c r="F9" t="s">
         <v>264</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2177,7 +2176,7 @@
       <c r="F10" t="s">
         <v>265</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2201,7 +2200,7 @@
       <c r="F11" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2225,7 +2224,7 @@
       <c r="F12" t="s">
         <v>267</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2249,7 +2248,7 @@
       <c r="F13" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2273,7 +2272,7 @@
       <c r="F14" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2297,7 +2296,7 @@
       <c r="F15" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2321,7 +2320,7 @@
       <c r="F16" t="s">
         <v>271</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2345,7 +2344,7 @@
       <c r="F17" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2369,7 +2368,7 @@
       <c r="F18" t="s">
         <v>273</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2393,7 +2392,7 @@
       <c r="F19" t="s">
         <v>274</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2417,7 +2416,7 @@
       <c r="F20" t="s">
         <v>275</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2441,7 +2440,7 @@
       <c r="F21" t="s">
         <v>276</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2465,7 +2464,7 @@
       <c r="F22" t="s">
         <v>277</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2489,7 +2488,7 @@
       <c r="F23" t="s">
         <v>278</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2513,7 +2512,7 @@
       <c r="F24" t="s">
         <v>279</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2537,7 +2536,7 @@
       <c r="F25" t="s">
         <v>280</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2561,7 +2560,7 @@
       <c r="F26" t="s">
         <v>281</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2585,7 +2584,7 @@
       <c r="F27" t="s">
         <v>282</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2609,7 +2608,7 @@
       <c r="F28" t="s">
         <v>283</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2633,7 +2632,7 @@
       <c r="F29" t="s">
         <v>284</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2657,7 +2656,7 @@
       <c r="F30" t="s">
         <v>285</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2681,7 +2680,7 @@
       <c r="F31" t="s">
         <v>286</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2705,7 +2704,7 @@
       <c r="F32" t="s">
         <v>287</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2729,7 +2728,7 @@
       <c r="F33" t="s">
         <v>288</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2753,7 +2752,7 @@
       <c r="F34" t="s">
         <v>289</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2777,7 +2776,7 @@
       <c r="F35" t="s">
         <v>290</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2801,7 +2800,7 @@
       <c r="F36" t="s">
         <v>291</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2825,7 +2824,7 @@
       <c r="F37" t="s">
         <v>292</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2849,7 +2848,7 @@
       <c r="F38" t="s">
         <v>293</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2873,7 +2872,7 @@
       <c r="F39" t="s">
         <v>294</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2897,7 +2896,7 @@
       <c r="F40" t="s">
         <v>295</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2921,7 +2920,7 @@
       <c r="F41" t="s">
         <v>296</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2945,7 +2944,7 @@
       <c r="F42" t="s">
         <v>297</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2969,7 +2968,7 @@
       <c r="F43" t="s">
         <v>298</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2993,7 +2992,7 @@
       <c r="F44" t="s">
         <v>299</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3017,7 +3016,7 @@
       <c r="F45" t="s">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3041,7 +3040,7 @@
       <c r="F46" t="s">
         <v>301</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3065,7 +3064,7 @@
       <c r="F47" t="s">
         <v>302</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3089,7 +3088,7 @@
       <c r="F48" t="s">
         <v>303</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3113,7 +3112,7 @@
       <c r="F49" t="s">
         <v>304</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3137,7 +3136,7 @@
       <c r="F50" t="s">
         <v>305</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3161,7 +3160,7 @@
       <c r="F51" t="s">
         <v>306</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3185,7 +3184,7 @@
       <c r="F52" t="s">
         <v>307</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3209,7 +3208,7 @@
       <c r="F53" t="s">
         <v>308</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3233,7 +3232,7 @@
       <c r="F54" t="s">
         <v>309</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3257,7 +3256,7 @@
       <c r="F55" t="s">
         <v>310</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3281,7 +3280,7 @@
       <c r="F56" t="s">
         <v>311</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3305,7 +3304,7 @@
       <c r="F57" t="s">
         <v>312</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3329,7 +3328,7 @@
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3353,7 +3352,7 @@
       <c r="F59" t="s">
         <v>314</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3377,7 +3376,7 @@
       <c r="F60" t="s">
         <v>315</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3401,7 +3400,7 @@
       <c r="F61" t="s">
         <v>316</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3425,7 +3424,7 @@
       <c r="F62" t="s">
         <v>317</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3449,7 +3448,7 @@
       <c r="F63" t="s">
         <v>318</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3473,7 +3472,7 @@
       <c r="F64" t="s">
         <v>319</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3497,7 +3496,7 @@
       <c r="F65" t="s">
         <v>320</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3521,7 +3520,7 @@
       <c r="F66" t="s">
         <v>321</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3545,7 +3544,7 @@
       <c r="F67" t="s">
         <v>322</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3569,7 +3568,7 @@
       <c r="F68" t="s">
         <v>323</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3593,7 +3592,7 @@
       <c r="F69" t="s">
         <v>324</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3617,7 +3616,7 @@
       <c r="F70" t="s">
         <v>325</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3641,7 +3640,7 @@
       <c r="F71" t="s">
         <v>326</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3665,7 +3664,7 @@
       <c r="F72" t="s">
         <v>327</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3689,7 +3688,7 @@
       <c r="F73" t="s">
         <v>328</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3713,7 +3712,7 @@
       <c r="F74" t="s">
         <v>329</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3737,7 +3736,7 @@
       <c r="F75" t="s">
         <v>330</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3761,7 +3760,7 @@
       <c r="F76" t="s">
         <v>331</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3785,7 +3784,7 @@
       <c r="F77" t="s">
         <v>332</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3809,7 +3808,7 @@
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3833,7 +3832,7 @@
       <c r="F79" t="s">
         <v>334</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3857,7 +3856,7 @@
       <c r="F80" t="s">
         <v>335</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3881,7 +3880,7 @@
       <c r="F81" t="s">
         <v>336</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3905,7 +3904,7 @@
       <c r="F82" t="s">
         <v>337</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3929,7 +3928,7 @@
       <c r="F83" t="s">
         <v>338</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3953,7 +3952,7 @@
       <c r="F84" t="s">
         <v>339</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3977,7 +3976,7 @@
       <c r="F85" t="s">
         <v>340</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4001,7 +4000,7 @@
       <c r="F86" t="s">
         <v>341</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4025,7 +4024,7 @@
       <c r="F87" t="s">
         <v>342</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4049,7 +4048,7 @@
       <c r="F88" t="s">
         <v>343</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4073,7 +4072,7 @@
       <c r="F89" t="s">
         <v>344</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4097,7 +4096,7 @@
       <c r="F90" t="s">
         <v>345</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4121,7 +4120,7 @@
       <c r="F91" t="s">
         <v>346</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4145,7 +4144,7 @@
       <c r="F92" t="s">
         <v>347</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4169,7 +4168,7 @@
       <c r="F93" t="s">
         <v>348</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4193,7 +4192,7 @@
       <c r="F94" t="s">
         <v>349</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4217,7 +4216,7 @@
       <c r="F95" t="s">
         <v>350</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4241,7 +4240,7 @@
       <c r="F96" t="s">
         <v>351</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4265,7 +4264,7 @@
       <c r="F97" t="s">
         <v>352</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G97" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4289,7 +4288,7 @@
       <c r="F98" t="s">
         <v>353</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4313,7 +4312,7 @@
       <c r="F99" t="s">
         <v>354</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G99" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4337,7 +4336,7 @@
       <c r="F100" t="s">
         <v>355</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4361,7 +4360,7 @@
       <c r="F101" t="s">
         <v>356</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4385,7 +4384,7 @@
       <c r="F102" t="s">
         <v>357</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4409,7 +4408,7 @@
       <c r="F103" t="s">
         <v>358</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4433,7 +4432,7 @@
       <c r="F104" t="s">
         <v>359</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4457,7 +4456,7 @@
       <c r="F105" t="s">
         <v>360</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4481,7 +4480,7 @@
       <c r="F106" t="s">
         <v>361</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4505,7 +4504,7 @@
       <c r="F107" t="s">
         <v>362</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4529,7 +4528,7 @@
       <c r="F108" t="s">
         <v>363</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4553,7 +4552,7 @@
       <c r="F109" t="s">
         <v>364</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4577,7 +4576,7 @@
       <c r="F110" t="s">
         <v>365</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G110" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4601,7 +4600,7 @@
       <c r="F111" t="s">
         <v>366</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G111" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4625,7 +4624,7 @@
       <c r="F112" t="s">
         <v>367</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G112" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4649,7 +4648,7 @@
       <c r="F113" t="s">
         <v>368</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G113" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4673,7 +4672,7 @@
       <c r="F114" t="s">
         <v>369</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4697,7 +4696,7 @@
       <c r="F115" t="s">
         <v>370</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G115" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4721,7 +4720,7 @@
       <c r="F116" t="s">
         <v>371</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G116" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4745,7 +4744,7 @@
       <c r="F117" t="s">
         <v>372</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4769,7 +4768,7 @@
       <c r="F118" t="s">
         <v>373</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4793,7 +4792,7 @@
       <c r="F119" t="s">
         <v>374</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4817,7 +4816,7 @@
       <c r="F120" t="s">
         <v>375</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4841,7 +4840,7 @@
       <c r="F121" t="s">
         <v>376</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4865,7 +4864,7 @@
       <c r="F122" t="s">
         <v>377</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4889,7 +4888,7 @@
       <c r="F123" t="s">
         <v>378</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G123" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4913,7 +4912,7 @@
       <c r="F124" t="s">
         <v>379</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4937,7 +4936,7 @@
       <c r="F125" t="s">
         <v>380</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G125" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4961,7 +4960,7 @@
       <c r="F126" t="s">
         <v>381</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G126" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4985,7 +4984,7 @@
       <c r="F127" t="s">
         <v>382</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G127" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5009,7 +5008,7 @@
       <c r="F128" t="s">
         <v>383</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G128" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5033,7 +5032,7 @@
       <c r="F129" t="s">
         <v>384</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G129" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5057,7 +5056,7 @@
       <c r="F130" t="s">
         <v>385</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5081,7 +5080,7 @@
       <c r="F131" t="s">
         <v>386</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G131" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5105,7 +5104,7 @@
       <c r="F132" t="s">
         <v>387</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G132" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5129,7 +5128,7 @@
       <c r="F133" t="s">
         <v>388</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5153,7 +5152,7 @@
       <c r="F134" t="s">
         <v>389</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G134" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5177,7 +5176,7 @@
       <c r="F135" t="s">
         <v>390</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G135" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5201,7 +5200,7 @@
       <c r="F136" t="s">
         <v>391</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5225,7 +5224,7 @@
       <c r="F137" t="s">
         <v>392</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5249,7 +5248,7 @@
       <c r="F138" t="s">
         <v>393</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="G138" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5273,7 +5272,7 @@
       <c r="F139" t="s">
         <v>394</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G139" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5297,7 +5296,7 @@
       <c r="F140" t="s">
         <v>395</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="G140" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5321,7 +5320,7 @@
       <c r="F141" t="s">
         <v>396</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="G141" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5345,7 +5344,7 @@
       <c r="F142" t="s">
         <v>397</v>
       </c>
-      <c r="G142" s="3" t="s">
+      <c r="G142" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5369,7 +5368,7 @@
       <c r="F143" t="s">
         <v>398</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="G143" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5393,7 +5392,7 @@
       <c r="F144" t="s">
         <v>399</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="G144" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5417,7 +5416,7 @@
       <c r="F145" t="s">
         <v>400</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="G145" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5441,7 +5440,7 @@
       <c r="F146" t="s">
         <v>401</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="G146" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5465,7 +5464,7 @@
       <c r="F147" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="G147" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5489,7 +5488,7 @@
       <c r="F148" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="G148" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5513,7 +5512,7 @@
       <c r="F149" t="s">
         <v>404</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="G149" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5537,7 +5536,7 @@
       <c r="F150" t="s">
         <v>405</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="G150" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5561,7 +5560,7 @@
       <c r="F151" t="s">
         <v>406</v>
       </c>
-      <c r="G151" s="3" t="s">
+      <c r="G151" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5585,7 +5584,7 @@
       <c r="F152" t="s">
         <v>407</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="G152" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5609,7 +5608,7 @@
       <c r="F153" t="s">
         <v>408</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="G153" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5633,7 +5632,7 @@
       <c r="F154" t="s">
         <v>409</v>
       </c>
-      <c r="G154" s="3" t="s">
+      <c r="G154" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5657,7 +5656,7 @@
       <c r="F155" t="s">
         <v>410</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G155" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5681,7 +5680,7 @@
       <c r="F156" t="s">
         <v>411</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G156" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5705,7 +5704,7 @@
       <c r="F157" t="s">
         <v>412</v>
       </c>
-      <c r="G157" s="3" t="s">
+      <c r="G157" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5729,7 +5728,7 @@
       <c r="F158" t="s">
         <v>413</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="G158" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5753,7 +5752,7 @@
       <c r="F159" t="s">
         <v>414</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G159" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5777,7 +5776,7 @@
       <c r="F160" t="s">
         <v>415</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="G160" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5801,7 +5800,7 @@
       <c r="F161" t="s">
         <v>416</v>
       </c>
-      <c r="G161" s="3" t="s">
+      <c r="G161" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5825,7 +5824,7 @@
       <c r="F162" t="s">
         <v>417</v>
       </c>
-      <c r="G162" s="3" t="s">
+      <c r="G162" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5849,7 +5848,7 @@
       <c r="F163" t="s">
         <v>418</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="G163" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5873,7 +5872,7 @@
       <c r="F164" t="s">
         <v>419</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G164" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5897,7 +5896,7 @@
       <c r="F165" t="s">
         <v>420</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G165" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5921,7 +5920,7 @@
       <c r="F166" t="s">
         <v>421</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="G166" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5945,7 +5944,7 @@
       <c r="F167" t="s">
         <v>422</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="G167" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5969,7 +5968,7 @@
       <c r="F168" t="s">
         <v>423</v>
       </c>
-      <c r="G168" s="3" t="s">
+      <c r="G168" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5993,7 +5992,7 @@
       <c r="F169" t="s">
         <v>424</v>
       </c>
-      <c r="G169" s="3" t="s">
+      <c r="G169" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6017,7 +6016,7 @@
       <c r="F170" t="s">
         <v>425</v>
       </c>
-      <c r="G170" s="3" t="s">
+      <c r="G170" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6041,7 +6040,7 @@
       <c r="F171" t="s">
         <v>426</v>
       </c>
-      <c r="G171" s="3" t="s">
+      <c r="G171" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6065,7 +6064,7 @@
       <c r="F172" t="s">
         <v>427</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="G172" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6089,7 +6088,7 @@
       <c r="F173" t="s">
         <v>428</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="G173" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6113,7 +6112,7 @@
       <c r="F174" t="s">
         <v>429</v>
       </c>
-      <c r="G174" s="3" t="s">
+      <c r="G174" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6137,7 +6136,7 @@
       <c r="F175" t="s">
         <v>430</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="G175" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6161,7 +6160,7 @@
       <c r="F176" t="s">
         <v>431</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G176" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6185,7 +6184,7 @@
       <c r="F177" t="s">
         <v>432</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="G177" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6209,7 +6208,7 @@
       <c r="F178" t="s">
         <v>433</v>
       </c>
-      <c r="G178" s="3" t="s">
+      <c r="G178" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6233,7 +6232,7 @@
       <c r="F179" t="s">
         <v>434</v>
       </c>
-      <c r="G179" s="3" t="s">
+      <c r="G179" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6257,7 +6256,7 @@
       <c r="F180" t="s">
         <v>435</v>
       </c>
-      <c r="G180" s="3" t="s">
+      <c r="G180" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6281,7 +6280,7 @@
       <c r="F181" t="s">
         <v>436</v>
       </c>
-      <c r="G181" s="3" t="s">
+      <c r="G181" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6305,7 +6304,7 @@
       <c r="F182" t="s">
         <v>437</v>
       </c>
-      <c r="G182" s="3" t="s">
+      <c r="G182" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6329,7 +6328,7 @@
       <c r="F183" t="s">
         <v>438</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="G183" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6353,7 +6352,7 @@
       <c r="F184" t="s">
         <v>439</v>
       </c>
-      <c r="G184" s="3" t="s">
+      <c r="G184" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6377,7 +6376,7 @@
       <c r="F185" t="s">
         <v>440</v>
       </c>
-      <c r="G185" s="3" t="s">
+      <c r="G185" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6401,7 +6400,7 @@
       <c r="F186" t="s">
         <v>441</v>
       </c>
-      <c r="G186" s="3" t="s">
+      <c r="G186" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6425,7 +6424,7 @@
       <c r="F187" t="s">
         <v>442</v>
       </c>
-      <c r="G187" s="3" t="s">
+      <c r="G187" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6449,7 +6448,7 @@
       <c r="F188" t="s">
         <v>443</v>
       </c>
-      <c r="G188" s="3" t="s">
+      <c r="G188" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6473,7 +6472,7 @@
       <c r="F189" t="s">
         <v>444</v>
       </c>
-      <c r="G189" s="3" t="s">
+      <c r="G189" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6497,7 +6496,7 @@
       <c r="F190" t="s">
         <v>445</v>
       </c>
-      <c r="G190" s="3" t="s">
+      <c r="G190" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6521,7 +6520,7 @@
       <c r="F191" t="s">
         <v>446</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="G191" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6545,7 +6544,7 @@
       <c r="F192" t="s">
         <v>447</v>
       </c>
-      <c r="G192" s="3" t="s">
+      <c r="G192" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6569,7 +6568,7 @@
       <c r="F193" t="s">
         <v>448</v>
       </c>
-      <c r="G193" s="3" t="s">
+      <c r="G193" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6593,7 +6592,7 @@
       <c r="F194" t="s">
         <v>449</v>
       </c>
-      <c r="G194" s="3" t="s">
+      <c r="G194" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6617,7 +6616,7 @@
       <c r="F195" t="s">
         <v>450</v>
       </c>
-      <c r="G195" s="3" t="s">
+      <c r="G195" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6641,7 +6640,7 @@
       <c r="F196" t="s">
         <v>451</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="G196" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6665,7 +6664,7 @@
       <c r="F197" t="s">
         <v>452</v>
       </c>
-      <c r="G197" s="3" t="s">
+      <c r="G197" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6689,7 +6688,7 @@
       <c r="F198" t="s">
         <v>453</v>
       </c>
-      <c r="G198" s="3" t="s">
+      <c r="G198" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6713,7 +6712,7 @@
       <c r="F199" t="s">
         <v>454</v>
       </c>
-      <c r="G199" s="3" t="s">
+      <c r="G199" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6737,7 +6736,7 @@
       <c r="F200" t="s">
         <v>455</v>
       </c>
-      <c r="G200" s="3" t="s">
+      <c r="G200" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6761,7 +6760,7 @@
       <c r="F201" t="s">
         <v>456</v>
       </c>
-      <c r="G201" s="3" t="s">
+      <c r="G201" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6785,7 +6784,7 @@
       <c r="F202" t="s">
         <v>457</v>
       </c>
-      <c r="G202" s="3" t="s">
+      <c r="G202" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6809,7 +6808,7 @@
       <c r="F203" t="s">
         <v>458</v>
       </c>
-      <c r="G203" s="3" t="s">
+      <c r="G203" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6833,7 +6832,7 @@
       <c r="F204" t="s">
         <v>459</v>
       </c>
-      <c r="G204" s="3" t="s">
+      <c r="G204" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6857,7 +6856,7 @@
       <c r="F205" t="s">
         <v>460</v>
       </c>
-      <c r="G205" s="3" t="s">
+      <c r="G205" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6881,7 +6880,7 @@
       <c r="F206" t="s">
         <v>461</v>
       </c>
-      <c r="G206" s="3" t="s">
+      <c r="G206" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6905,7 +6904,7 @@
       <c r="F207" t="s">
         <v>462</v>
       </c>
-      <c r="G207" s="3" t="s">
+      <c r="G207" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6929,7 +6928,7 @@
       <c r="F208" t="s">
         <v>463</v>
       </c>
-      <c r="G208" s="3" t="s">
+      <c r="G208" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6953,7 +6952,7 @@
       <c r="F209" t="s">
         <v>464</v>
       </c>
-      <c r="G209" s="3" t="s">
+      <c r="G209" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6977,7 +6976,7 @@
       <c r="F210" t="s">
         <v>465</v>
       </c>
-      <c r="G210" s="3" t="s">
+      <c r="G210" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7001,7 +7000,7 @@
       <c r="F211" t="s">
         <v>466</v>
       </c>
-      <c r="G211" s="3" t="s">
+      <c r="G211" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7025,7 +7024,7 @@
       <c r="F212" t="s">
         <v>467</v>
       </c>
-      <c r="G212" s="3" t="s">
+      <c r="G212" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7049,7 +7048,7 @@
       <c r="F213" t="s">
         <v>468</v>
       </c>
-      <c r="G213" s="3" t="s">
+      <c r="G213" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7073,7 +7072,7 @@
       <c r="F214" t="s">
         <v>469</v>
       </c>
-      <c r="G214" s="3" t="s">
+      <c r="G214" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7097,7 +7096,7 @@
       <c r="F215" t="s">
         <v>470</v>
       </c>
-      <c r="G215" s="3" t="s">
+      <c r="G215" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7121,7 +7120,7 @@
       <c r="F216" t="s">
         <v>471</v>
       </c>
-      <c r="G216" s="3" t="s">
+      <c r="G216" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7145,7 +7144,7 @@
       <c r="F217" t="s">
         <v>472</v>
       </c>
-      <c r="G217" s="3" t="s">
+      <c r="G217" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7169,7 +7168,7 @@
       <c r="F218" t="s">
         <v>473</v>
       </c>
-      <c r="G218" s="3" t="s">
+      <c r="G218" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7193,7 +7192,7 @@
       <c r="F219" t="s">
         <v>474</v>
       </c>
-      <c r="G219" s="3" t="s">
+      <c r="G219" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7217,7 +7216,7 @@
       <c r="F220" t="s">
         <v>475</v>
       </c>
-      <c r="G220" s="3" t="s">
+      <c r="G220" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7241,7 +7240,7 @@
       <c r="F221" t="s">
         <v>476</v>
       </c>
-      <c r="G221" s="3" t="s">
+      <c r="G221" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7265,7 +7264,7 @@
       <c r="F222" t="s">
         <v>477</v>
       </c>
-      <c r="G222" s="3" t="s">
+      <c r="G222" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7289,7 +7288,7 @@
       <c r="F223" t="s">
         <v>478</v>
       </c>
-      <c r="G223" s="3" t="s">
+      <c r="G223" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7313,7 +7312,7 @@
       <c r="F224" t="s">
         <v>479</v>
       </c>
-      <c r="G224" s="3" t="s">
+      <c r="G224" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7337,7 +7336,7 @@
       <c r="F225" t="s">
         <v>480</v>
       </c>
-      <c r="G225" s="3" t="s">
+      <c r="G225" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7361,7 +7360,7 @@
       <c r="F226" t="s">
         <v>481</v>
       </c>
-      <c r="G226" s="3" t="s">
+      <c r="G226" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7385,7 +7384,7 @@
       <c r="F227" t="s">
         <v>482</v>
       </c>
-      <c r="G227" s="3" t="s">
+      <c r="G227" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7409,7 +7408,7 @@
       <c r="F228" t="s">
         <v>483</v>
       </c>
-      <c r="G228" s="3" t="s">
+      <c r="G228" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7433,7 +7432,7 @@
       <c r="F229" t="s">
         <v>484</v>
       </c>
-      <c r="G229" s="3" t="s">
+      <c r="G229" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7457,7 +7456,7 @@
       <c r="F230" t="s">
         <v>485</v>
       </c>
-      <c r="G230" s="3" t="s">
+      <c r="G230" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7481,7 +7480,7 @@
       <c r="F231" t="s">
         <v>486</v>
       </c>
-      <c r="G231" s="3" t="s">
+      <c r="G231" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7505,7 +7504,7 @@
       <c r="F232" t="s">
         <v>487</v>
       </c>
-      <c r="G232" s="3" t="s">
+      <c r="G232" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7529,7 +7528,7 @@
       <c r="F233" t="s">
         <v>488</v>
       </c>
-      <c r="G233" s="3" t="s">
+      <c r="G233" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7553,7 +7552,7 @@
       <c r="F234" t="s">
         <v>489</v>
       </c>
-      <c r="G234" s="3" t="s">
+      <c r="G234" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7577,7 +7576,7 @@
       <c r="F235" t="s">
         <v>490</v>
       </c>
-      <c r="G235" s="3" t="s">
+      <c r="G235" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7601,7 +7600,7 @@
       <c r="F236" t="s">
         <v>491</v>
       </c>
-      <c r="G236" s="3" t="s">
+      <c r="G236" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7625,7 +7624,7 @@
       <c r="F237" t="s">
         <v>492</v>
       </c>
-      <c r="G237" s="3" t="s">
+      <c r="G237" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7649,7 +7648,7 @@
       <c r="F238" t="s">
         <v>493</v>
       </c>
-      <c r="G238" s="3" t="s">
+      <c r="G238" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7673,7 +7672,7 @@
       <c r="F239" t="s">
         <v>494</v>
       </c>
-      <c r="G239" s="3" t="s">
+      <c r="G239" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7697,7 +7696,7 @@
       <c r="F240" t="s">
         <v>495</v>
       </c>
-      <c r="G240" s="3" t="s">
+      <c r="G240" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7721,7 +7720,7 @@
       <c r="F241" t="s">
         <v>496</v>
       </c>
-      <c r="G241" s="3" t="s">
+      <c r="G241" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7745,7 +7744,7 @@
       <c r="F242" t="s">
         <v>497</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="G242" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7769,7 +7768,7 @@
       <c r="F243" t="s">
         <v>498</v>
       </c>
-      <c r="G243" s="3" t="s">
+      <c r="G243" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7793,7 +7792,7 @@
       <c r="F244" t="s">
         <v>499</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="G244" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7817,7 +7816,7 @@
       <c r="F245" t="s">
         <v>500</v>
       </c>
-      <c r="G245" s="3" t="s">
+      <c r="G245" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7841,7 +7840,7 @@
       <c r="F246" t="s">
         <v>501</v>
       </c>
-      <c r="G246" s="3" t="s">
+      <c r="G246" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7865,12 +7864,16 @@
       <c r="F247" t="s">
         <v>502</v>
       </c>
-      <c r="G247" s="3" t="s">
+      <c r="G247" t="s">
         <v>503</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{0CE39288-96DE-7E45-9F69-BF4AAC8BB7AB}"/>
+    <hyperlink ref="G3:G247" r:id="rId2" display="T0SMKTH@" xr:uid="{8DBAC86F-EDA8-4F4E-B650-B523178EFF9C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>